--- a/WSC/Test Report/Procurement & Inventory/WSC Prcurement & Inventory_Supplier.xlsx
+++ b/WSC/Test Report/Procurement & Inventory/WSC Prcurement & Inventory_Supplier.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12330"/>
+    <workbookView windowWidth="27945" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TC2_supplier" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="197">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -36,6 +36,12 @@
   </si>
   <si>
     <t>Reviewed By</t>
+  </si>
+  <si>
+    <t>Executed By</t>
+  </si>
+  <si>
+    <t>Abhishek Anand</t>
   </si>
   <si>
     <t>S#</t>
@@ -59,6 +65,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>url</t>
     </r>
     <r>
@@ -74,6 +88,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>User</t>
     </r>
     <r>
@@ -110,6 +132,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>User</t>
     </r>
     <r>
@@ -1230,7 +1260,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1258,19 +1288,6 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1403,7 +1420,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1415,34 +1432,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1527,7 +1544,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1546,30 +1563,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1592,9 +1597,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2132,8 +2134,8 @@
   <sheetPr/>
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2178,8 +2180,12 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:6">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -2187,16 +2193,16 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="135" spans="1:6">
@@ -2204,41 +2210,41 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:6">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="10"/>
+      <c r="C6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:6">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="10"/>
+      <c r="C7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="78" customHeight="1" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -2254,32 +2260,32 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>19</v>
       </c>
+      <c r="C10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="E10" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:7">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13" t="s">
-        <v>23</v>
+      <c r="A11" s="9"/>
+      <c r="B11" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -2288,172 +2294,172 @@
       <c r="G11" s="3"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:7">
-      <c r="A12" s="12">
+      <c r="A12" s="9">
         <v>1</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>24</v>
+      <c r="B12" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A13" s="12">
+      <c r="A13" s="9">
         <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A14" s="12">
+      <c r="A14" s="9">
         <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>27</v>
+        <v>35</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A15" s="12">
+      <c r="A15" s="9">
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>27</v>
+        <v>38</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A16" s="12">
+      <c r="A16" s="9">
         <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>27</v>
+        <v>41</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A17" s="12">
+      <c r="A17" s="9">
         <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>27</v>
+        <v>44</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A18" s="12">
+      <c r="A18" s="9">
         <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>27</v>
+        <v>47</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="75" spans="1:7">
-      <c r="A19" s="12">
+      <c r="A19" s="9">
         <v>8</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>27</v>
+        <v>50</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A20" s="12">
+      <c r="A20" s="9">
         <v>9</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3">
@@ -2461,58 +2467,58 @@
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="90" spans="1:7">
-      <c r="A21" s="12">
+      <c r="A21" s="9">
         <v>10</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>27</v>
+        <v>57</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A22" s="12">
+      <c r="A22" s="9">
         <v>11</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>27</v>
+        <v>60</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A23" s="12">
+      <c r="A23" s="9">
         <v>12</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>52</v>
+        <v>63</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3">
@@ -2520,286 +2526,286 @@
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="75" spans="1:7">
-      <c r="A24" s="12">
+      <c r="A24" s="9">
         <v>13</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>27</v>
+        <v>66</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A25" s="12">
+      <c r="A25" s="9">
         <v>14</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>27</v>
+        <v>69</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="75" spans="1:7">
-      <c r="A26" s="12">
+      <c r="A26" s="9">
         <v>15</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>27</v>
+        <v>72</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="75" spans="1:7">
-      <c r="A27" s="12">
+      <c r="A27" s="9">
         <v>16</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>27</v>
+        <v>75</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A28" s="12">
+      <c r="A28" s="9">
         <v>17</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>27</v>
+        <v>78</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="90" spans="1:7">
-      <c r="A29" s="12">
+      <c r="A29" s="9">
         <v>18</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>27</v>
+        <v>81</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
     <row r="30" s="1" customFormat="1" ht="75" spans="1:7">
-      <c r="A30" s="12">
+      <c r="A30" s="9">
         <v>19</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>27</v>
+        <v>84</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A31" s="12">
+      <c r="A31" s="9">
         <v>20</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>27</v>
+        <v>87</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A32" s="12">
+      <c r="A32" s="9">
         <v>21</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>27</v>
+        <v>90</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A33" s="12">
+      <c r="A33" s="9">
         <v>22</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>27</v>
+        <v>93</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
     <row r="34" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A34" s="12">
+      <c r="A34" s="9">
         <v>23</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>27</v>
+        <v>96</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A35" s="12">
+      <c r="A35" s="9">
         <v>24</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>27</v>
+        <v>99</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
     <row r="36" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A36" s="12">
+      <c r="A36" s="9">
         <v>25</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>27</v>
+        <v>102</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
     <row r="37" s="1" customFormat="1" ht="75" spans="1:7">
-      <c r="A37" s="12">
+      <c r="A37" s="9">
         <v>26</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>27</v>
+        <v>105</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
     <row r="38" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A38" s="12">
+      <c r="A38" s="9">
         <v>27</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>52</v>
+        <v>108</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3">
@@ -2807,20 +2813,20 @@
       </c>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:7">
-      <c r="A39" s="12">
+      <c r="A39" s="9">
         <v>28</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>52</v>
+        <v>111</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3">
@@ -2828,380 +2834,376 @@
       </c>
     </row>
     <row r="40" s="1" customFormat="1" ht="75" spans="1:7">
-      <c r="A40" s="12">
+      <c r="A40" s="9">
         <v>29</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>27</v>
+        <v>114</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
     <row r="41" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A41" s="12">
+      <c r="A41" s="9">
         <v>30</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>27</v>
+        <v>117</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
     <row r="42" s="1" customFormat="1" ht="75" spans="1:7">
-      <c r="A42" s="12">
+      <c r="A42" s="9">
         <v>31</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>27</v>
+        <v>120</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
     <row r="43" s="1" customFormat="1" ht="75" spans="1:7">
-      <c r="A43" s="12">
+      <c r="A43" s="9">
         <v>32</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>27</v>
+        <v>123</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
     <row r="44" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A44" s="12">
+      <c r="A44" s="9">
         <v>33</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>27</v>
+        <v>126</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
     <row r="45" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A45" s="12">
+      <c r="A45" s="9">
         <v>34</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>27</v>
+        <v>129</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
     <row r="46" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A46" s="12">
+      <c r="A46" s="9">
         <v>35</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>27</v>
+        <v>132</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
     <row r="47" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A47" s="12">
+      <c r="A47" s="9">
         <v>36</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>27</v>
+        <v>135</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
     <row r="48" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A48" s="12">
+      <c r="A48" s="9">
         <v>37</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>27</v>
+        <v>138</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
     <row r="49" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A49" s="12">
+      <c r="A49" s="9">
         <v>38</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="D49" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>27</v>
+        <v>138</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
     <row r="50" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A50" s="12">
+      <c r="A50" s="9">
         <v>39</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>27</v>
+      <c r="E50" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
     </row>
     <row r="51" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A51" s="12">
+      <c r="A51" s="9">
         <v>40</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>27</v>
+        <v>138</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
     <row r="52" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A52" s="12">
+      <c r="A52" s="9">
         <v>41</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>27</v>
+        <v>144</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
     </row>
     <row r="53" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A53" s="12">
+      <c r="A53" s="9">
         <v>42</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>27</v>
+        <v>147</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
     </row>
     <row r="54" s="1" customFormat="1" ht="75" spans="1:7">
-      <c r="A54" s="12">
+      <c r="A54" s="9">
         <v>43</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>27</v>
+        <v>150</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
     </row>
     <row r="55" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A55" s="12">
+      <c r="A55" s="9">
         <v>44</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>27</v>
+        <v>44</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
     </row>
     <row r="56" s="1" customFormat="1" spans="1:1">
-      <c r="A56" s="15"/>
+      <c r="A56" s="11"/>
     </row>
     <row r="57" s="1" customFormat="1" spans="1:6">
-      <c r="A57" s="15"/>
-      <c r="B57" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="C57" s="16"/>
-      <c r="D57" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="E57" s="18" t="s">
+      <c r="A57" s="11"/>
+      <c r="B57" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="F57" s="19" t="s">
-        <v>22</v>
+      <c r="C57" s="12"/>
+      <c r="D57" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A58" s="15"/>
-      <c r="B58" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="C58" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="D58" s="21" t="s">
+      <c r="A58" s="11"/>
+      <c r="B58" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="E58" s="22" t="s">
-        <v>52</v>
+      <c r="C58" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="F58" s="3">
         <v>59</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A59" s="15"/>
-      <c r="B59" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="C59" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="D59" s="21" t="s">
+      <c r="A59" s="11"/>
+      <c r="B59" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="E59" s="22" t="s">
-        <v>52</v>
+      <c r="C59" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="F59" s="3">
         <v>59</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="1" spans="1:1">
-      <c r="A60" s="15"/>
+      <c r="A60" s="11"/>
     </row>
     <row r="61" s="1" customFormat="1" spans="1:1">
-      <c r="A61" s="15"/>
+      <c r="A61" s="11"/>
     </row>
     <row r="62" s="1" customFormat="1" spans="1:1">
-      <c r="A62" s="15"/>
+      <c r="A62" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="3">
     <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B57:C57"/>
   </mergeCells>
@@ -3215,8 +3217,8 @@
   <sheetPr/>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -3235,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -3261,8 +3263,12 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:6">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -3270,16 +3276,16 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
@@ -3287,41 +3293,41 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="8"/>
+        <v>164</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:6">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="10"/>
+      <c r="C6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:6">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="10"/>
+      <c r="C7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -3337,32 +3343,32 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>19</v>
       </c>
+      <c r="C10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="E10" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:7">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13" t="s">
-        <v>164</v>
+      <c r="A11" s="9"/>
+      <c r="B11" s="7" t="s">
+        <v>166</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -3371,342 +3377,338 @@
       <c r="G11" s="3"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A12" s="12">
+      <c r="A12" s="9">
         <v>1</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>165</v>
+      <c r="B12" s="10" t="s">
+        <v>167</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>27</v>
+        <v>169</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A13" s="12">
+      <c r="A13" s="9">
         <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A14" s="12">
+      <c r="A14" s="9">
         <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>27</v>
+        <v>174</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A15" s="12">
+      <c r="A15" s="9">
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>27</v>
+        <v>41</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A16" s="12">
+      <c r="A16" s="9">
         <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>27</v>
+        <v>44</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A17" s="12">
+      <c r="A17" s="9">
         <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>27</v>
+        <v>177</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A18" s="12">
+      <c r="A18" s="9">
         <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>27</v>
+        <v>180</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A19" s="12">
+      <c r="A19" s="9">
         <v>8</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>27</v>
+        <v>183</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A20" s="12">
+      <c r="A20" s="9">
         <v>9</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>27</v>
+        <v>186</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A21" s="12">
+      <c r="A21" s="9">
         <v>10</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>27</v>
+        <v>189</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A22" s="12">
+      <c r="A22" s="9">
         <v>11</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>27</v>
+        <v>192</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="75" spans="1:7">
-      <c r="A23" s="12">
+      <c r="A23" s="9">
         <v>12</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>27</v>
+        <v>194</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A24" s="12">
+      <c r="A24" s="9">
         <v>13</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>27</v>
+        <v>132</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A25" s="12">
+      <c r="A25" s="9">
         <v>14</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>27</v>
+        <v>44</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:1">
-      <c r="A26" s="15"/>
+      <c r="A26" s="11"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:6">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="E27" s="18" t="s">
+      <c r="A27" s="11"/>
+      <c r="B27" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="F27" s="19" t="s">
-        <v>22</v>
+      <c r="C27" s="12"/>
+      <c r="D27" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A28" s="15"/>
-      <c r="B28" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="D28" s="21" t="s">
+      <c r="A28" s="11"/>
+      <c r="B28" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="E28" s="13" t="s">
-        <v>52</v>
+      <c r="C28" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="F28" s="3">
         <v>59</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A29" s="15"/>
-      <c r="B29" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="D29" s="21" t="s">
+      <c r="A29" s="11"/>
+      <c r="B29" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="E29" s="13" t="s">
-        <v>52</v>
+      <c r="C29" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="F29" s="3">
         <v>59</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:1">
-      <c r="A30" s="15"/>
+      <c r="A30" s="11"/>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:1">
-      <c r="A31" s="15"/>
+      <c r="A31" s="11"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:1">
-      <c r="A32" s="15"/>
+      <c r="A32" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="3">
     <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B27:C27"/>
   </mergeCells>
